--- a/excel/노동력 참여율, 전체(15세 이상 전체 인구 대비 %)(국가 추정치).xlsx
+++ b/excel/노동력 참여율, 전체(15세 이상 전체 인구 대비 %)(국가 추정치).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1960</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50.1</v>
-      </c>
+        <v>1978</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>69.2</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +467,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1961</v>
+        <v>1979</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="D3" t="n">
-        <v>69.09999999999999</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +481,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1962</v>
+        <v>1980</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.01</v>
       </c>
       <c r="D4" t="n">
-        <v>68.3</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1963</v>
+        <v>1981</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>58.51</v>
       </c>
       <c r="D5" t="n">
-        <v>67.09999999999999</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +509,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58.64</v>
       </c>
       <c r="D6" t="n">
-        <v>66.09999999999999</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +523,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>57.68</v>
       </c>
       <c r="D7" t="n">
-        <v>65.7</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +537,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1966</v>
+        <v>1984</v>
       </c>
       <c r="C8" t="n">
-        <v>51.68</v>
+        <v>55.83</v>
       </c>
       <c r="D8" t="n">
-        <v>65.8</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +551,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1967</v>
+        <v>1985</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="D9" t="n">
-        <v>65.90000000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +565,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1968</v>
+        <v>1986</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="D10" t="n">
-        <v>65.90000000000001</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +579,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1969</v>
+        <v>1987</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>58.28</v>
       </c>
       <c r="D11" t="n">
-        <v>65.5</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +593,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1970</v>
+        <v>1988</v>
       </c>
       <c r="C12" t="n">
-        <v>56.25</v>
+        <v>58.46</v>
       </c>
       <c r="D12" t="n">
-        <v>65.40000000000001</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +607,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1971</v>
+        <v>1989</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>59.55</v>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +621,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1972</v>
+        <v>1990</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>60.02</v>
       </c>
       <c r="D14" t="n">
-        <v>64.40000000000001</v>
+        <v>63.39</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1973</v>
+        <v>1991</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>60.6</v>
       </c>
       <c r="D15" t="n">
-        <v>64.7</v>
+        <v>63.79</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +649,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1974</v>
+        <v>1992</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>60.89</v>
       </c>
       <c r="D16" t="n">
-        <v>63.7</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +663,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1975</v>
+        <v>1993</v>
       </c>
       <c r="C17" t="n">
-        <v>61.29</v>
+        <v>60.89</v>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>63.81</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +677,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>63.61</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +691,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1977</v>
+        <v>1995</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>61.94</v>
       </c>
       <c r="D19" t="n">
-        <v>63.2</v>
+        <v>63.42</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +705,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1978</v>
+        <v>1996</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>62.11</v>
       </c>
       <c r="D20" t="n">
-        <v>63.4</v>
+        <v>63.49</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +719,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1979</v>
+        <v>1997</v>
       </c>
       <c r="C21" t="n">
-        <v>37.8</v>
+        <v>62.5</v>
       </c>
       <c r="D21" t="n">
-        <v>63.4</v>
+        <v>63.67</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +733,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="C22" t="n">
-        <v>59.01</v>
+        <v>60.62</v>
       </c>
       <c r="D22" t="n">
-        <v>63.3</v>
+        <v>63.33</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +747,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1981</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>58.51</v>
+        <v>60.6</v>
       </c>
       <c r="D23" t="n">
-        <v>63.3</v>
+        <v>62.85</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +761,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1982</v>
+        <v>2000</v>
       </c>
       <c r="C24" t="n">
-        <v>58.64</v>
+        <v>61.57</v>
       </c>
       <c r="D24" t="n">
-        <v>63.3</v>
+        <v>62.44</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +775,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1983</v>
+        <v>2001</v>
       </c>
       <c r="C25" t="n">
-        <v>57.68</v>
+        <v>61.88</v>
       </c>
       <c r="D25" t="n">
-        <v>63.8</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +789,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1984</v>
+        <v>2002</v>
       </c>
       <c r="C26" t="n">
-        <v>55.83</v>
+        <v>62.45</v>
       </c>
       <c r="D26" t="n">
-        <v>63.4</v>
+        <v>61.23</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +803,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="C27" t="n">
-        <v>56.6</v>
+        <v>61.89</v>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>60.77</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +817,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1986</v>
+        <v>2004</v>
       </c>
       <c r="C28" t="n">
-        <v>57.1</v>
+        <v>62.69</v>
       </c>
       <c r="D28" t="n">
-        <v>62.8</v>
+        <v>60.42</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +831,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1987</v>
+        <v>2005</v>
       </c>
       <c r="C29" t="n">
-        <v>58.28</v>
+        <v>62.55</v>
       </c>
       <c r="D29" t="n">
-        <v>62.6</v>
+        <v>60.42</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +845,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="C30" t="n">
-        <v>58.46</v>
+        <v>62.52</v>
       </c>
       <c r="D30" t="n">
-        <v>62.6</v>
+        <v>60.42</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +859,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1989</v>
+        <v>2007</v>
       </c>
       <c r="C31" t="n">
-        <v>59.55</v>
+        <v>62.44</v>
       </c>
       <c r="D31" t="n">
-        <v>62.9</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +873,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02</v>
+        <v>61.97</v>
       </c>
       <c r="D32" t="n">
-        <v>63.39</v>
+        <v>60.16</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +887,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="C33" t="n">
-        <v>60.6</v>
+        <v>61.28</v>
       </c>
       <c r="D33" t="n">
-        <v>63.79</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +901,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="C34" t="n">
-        <v>60.89</v>
+        <v>61.36</v>
       </c>
       <c r="D34" t="n">
-        <v>63.99</v>
+        <v>59.58</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +915,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="C35" t="n">
-        <v>60.89</v>
+        <v>61.53</v>
       </c>
       <c r="D35" t="n">
-        <v>63.81</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +929,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1994</v>
+        <v>2012</v>
       </c>
       <c r="C36" t="n">
-        <v>61.6</v>
+        <v>61.71</v>
       </c>
       <c r="D36" t="n">
-        <v>63.61</v>
+        <v>59.01</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +943,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="C37" t="n">
-        <v>61.94</v>
+        <v>61.9</v>
       </c>
       <c r="D37" t="n">
-        <v>63.42</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +957,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1996</v>
+        <v>2014</v>
       </c>
       <c r="C38" t="n">
-        <v>62.11</v>
+        <v>62.91</v>
       </c>
       <c r="D38" t="n">
-        <v>63.49</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +971,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="C39" t="n">
-        <v>62.5</v>
+        <v>63.17</v>
       </c>
       <c r="D39" t="n">
-        <v>63.67</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +985,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="C40" t="n">
-        <v>60.62</v>
+        <v>63.2</v>
       </c>
       <c r="D40" t="n">
-        <v>63.33</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +999,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="C41" t="n">
-        <v>60.6</v>
+        <v>63.48</v>
       </c>
       <c r="D41" t="n">
-        <v>62.85</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1013,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C42" t="n">
-        <v>61.57</v>
+        <v>63.36</v>
       </c>
       <c r="D42" t="n">
-        <v>62.44</v>
+        <v>61.45</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1027,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="C43" t="n">
-        <v>61.88</v>
+        <v>63.57</v>
       </c>
       <c r="D43" t="n">
-        <v>61.99</v>
+        <v>62.01</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1041,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="C44" t="n">
-        <v>62.45</v>
+        <v>62.81</v>
       </c>
       <c r="D44" t="n">
-        <v>61.23</v>
+        <v>61.95</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1055,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="n">
-        <v>61.89</v>
+        <v>63.08</v>
       </c>
       <c r="D45" t="n">
-        <v>60.77</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="46">
@@ -1071,264 +1069,12 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="C46" t="n">
-        <v>62.69</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>60.42</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2005</v>
-      </c>
-      <c r="C47" t="n">
-        <v>62.55</v>
-      </c>
-      <c r="D47" t="n">
-        <v>60.42</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C48" t="n">
-        <v>62.52</v>
-      </c>
-      <c r="D48" t="n">
-        <v>60.42</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2007</v>
-      </c>
-      <c r="C49" t="n">
-        <v>62.44</v>
-      </c>
-      <c r="D49" t="n">
-        <v>60.39</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C50" t="n">
-        <v>61.97</v>
-      </c>
-      <c r="D50" t="n">
-        <v>60.16</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C51" t="n">
-        <v>61.28</v>
-      </c>
-      <c r="D51" t="n">
-        <v>59.86</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C52" t="n">
-        <v>61.36</v>
-      </c>
-      <c r="D52" t="n">
-        <v>59.58</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C53" t="n">
-        <v>61.53</v>
-      </c>
-      <c r="D53" t="n">
-        <v>59.25</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C54" t="n">
-        <v>61.71</v>
-      </c>
-      <c r="D54" t="n">
-        <v>59.01</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2013</v>
-      </c>
-      <c r="C55" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D55" t="n">
-        <v>59.25</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C56" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="D56" t="n">
-        <v>59.44</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C57" t="n">
-        <v>63.17</v>
-      </c>
-      <c r="D57" t="n">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C58" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C59" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="D59" t="n">
-        <v>60.44</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C60" t="n">
-        <v>63.36</v>
-      </c>
-      <c r="D60" t="n">
-        <v>61.45</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C61" t="n">
-        <v>63.57</v>
-      </c>
-      <c r="D61" t="n">
-        <v>62.01</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C62" t="n">
-        <v>62.81</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61.95</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C63" t="n">
-        <v>63.08</v>
-      </c>
-      <c r="D63" t="n">
-        <v>62.12</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C64" t="n">
-        <v>64.20999999999999</v>
-      </c>
-      <c r="D64" t="n">
         <v>62.5</v>
       </c>
     </row>
